--- a/AAII_Financials/Quarterly/OMPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OMPS_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>OMPS</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,59 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -722,10 +725,10 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -734,16 +737,19 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -751,10 +757,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -763,16 +769,19 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
       <c r="K9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -792,16 +801,19 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,8 +964,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -948,11 +974,11 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
@@ -960,16 +986,19 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -989,16 +1018,19 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1019,10 +1052,10 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1039,8 +1072,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1051,25 +1087,28 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,8 +1136,11 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1106,10 +1148,10 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
@@ -1118,16 +1160,19 @@
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,8 +1232,11 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1193,10 +1244,10 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
@@ -1205,16 +1256,19 @@
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1222,10 +1276,10 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
@@ -1234,16 +1288,19 @@
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1367,10 +1436,10 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1387,8 +1456,11 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1396,10 +1468,10 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
@@ -1408,16 +1480,19 @@
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,8 +1520,11 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1454,10 +1532,10 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
@@ -1466,50 +1544,56 @@
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,8 +1619,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1543,28 +1629,31 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1621,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1633,11 +1728,11 @@
         <v>100</v>
       </c>
       <c r="F44" s="3">
+        <v>100</v>
+      </c>
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
-        <v>100</v>
-      </c>
       <c r="H44" s="3">
         <v>100</v>
       </c>
@@ -1650,8 +1745,11 @@
       <c r="K44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1674,13 +1772,16 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1688,7 +1789,7 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
@@ -1700,16 +1801,19 @@
         <v>200</v>
       </c>
       <c r="I46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>300</v>
       </c>
       <c r="K46" s="3">
+        <v>300</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,8 +1841,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1752,7 +1859,7 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -1766,8 +1873,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2001,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,8 +2033,11 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1920,28 +2045,31 @@
         <v>200</v>
       </c>
       <c r="E54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>300</v>
       </c>
       <c r="G54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
       </c>
       <c r="I54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>300</v>
       </c>
       <c r="K54" s="3">
+        <v>300</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1975,28 +2105,31 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2004,13 +2137,13 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>500</v>
       </c>
       <c r="H58" s="3">
         <v>500</v>
@@ -2024,19 +2157,22 @@
       <c r="K58" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E59" s="3">
         <v>900</v>
       </c>
       <c r="F59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G59" s="3">
         <v>800</v>
@@ -2051,10 +2187,13 @@
         <v>800</v>
       </c>
       <c r="K59" s="3">
+        <v>800</v>
+      </c>
+      <c r="L59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2062,13 +2201,13 @@
         <v>1100</v>
       </c>
       <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1300</v>
       </c>
       <c r="H60" s="3">
         <v>1300</v>
@@ -2077,13 +2216,16 @@
         <v>1300</v>
       </c>
       <c r="J60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2091,13 +2233,13 @@
         <v>800</v>
       </c>
       <c r="E61" s="3">
+        <v>800</v>
+      </c>
+      <c r="F61" s="3">
         <v>1000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>600</v>
-      </c>
-      <c r="G61" s="3">
-        <v>500</v>
       </c>
       <c r="H61" s="3">
         <v>500</v>
@@ -2111,8 +2253,11 @@
       <c r="K61" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2125,8 +2270,8 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -2140,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,13 +2381,16 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E66" s="3">
         <v>1900</v>
@@ -2242,7 +2399,7 @@
         <v>1900</v>
       </c>
       <c r="G66" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H66" s="3">
         <v>1800</v>
@@ -2251,13 +2408,16 @@
         <v>1800</v>
       </c>
       <c r="J66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,8 +2555,11 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2394,28 +2567,31 @@
         <v>-2400</v>
       </c>
       <c r="E72" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="F72" s="3">
         <v>-2300</v>
       </c>
       <c r="G72" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="H72" s="3">
         <v>-2200</v>
       </c>
       <c r="I72" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="J72" s="3">
         <v>-2100</v>
       </c>
       <c r="K72" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="L72" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,19 +2683,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="E76" s="3">
         <v>-1700</v>
       </c>
       <c r="F76" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="G76" s="3">
         <v>-1600</v>
@@ -2522,16 +2707,19 @@
         <v>-1600</v>
       </c>
       <c r="I76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J76" s="3">
         <v>-1500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,42 +2747,48 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2602,10 +2796,10 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
@@ -2614,16 +2808,19 @@
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,16 +3164,19 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
@@ -2964,11 +3193,14 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,8 +3338,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3125,8 +3370,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,8 +3402,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3163,24 +3414,27 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OMPS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OMPS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>OMPS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,67 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -728,28 +736,34 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -760,28 +774,34 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -804,16 +824,22 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +852,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +886,14 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +924,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +962,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +1000,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,40 +1017,48 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,7 +1066,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1021,16 +1081,22 @@
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1109,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1055,14 +1123,14 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1075,8 +1143,14 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1087,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1102,13 +1176,19 @@
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,40 +1219,52 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1295,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1333,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1561,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1439,13 +1579,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1459,40 +1599,52 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1675,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,8 +1792,10 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1632,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -1650,10 +1824,16 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1864,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1902,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1731,13 +1923,13 @@
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
@@ -1748,8 +1940,14 @@
       <c r="L44" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>100</v>
+      </c>
+      <c r="N44" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1775,13 +1973,19 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1792,10 +1996,10 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
@@ -1804,16 +2008,22 @@
         <v>200</v>
       </c>
       <c r="J46" s="3">
+        <v>200</v>
+      </c>
+      <c r="K46" s="3">
+        <v>200</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,16 +2054,22 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -1862,10 +2078,10 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -1876,8 +2092,14 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2130,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2206,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2004,8 +2244,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,8 +2282,14 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2048,28 +2300,34 @@
         <v>200</v>
       </c>
       <c r="F54" s="3">
+        <v>200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>200</v>
+      </c>
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,8 +2356,10 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2108,48 +2370,54 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
+        <v>200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>500</v>
-      </c>
-      <c r="I58" s="3">
-        <v>500</v>
       </c>
       <c r="J58" s="3">
         <v>500</v>
@@ -2160,25 +2428,31 @@
       <c r="L58" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>500</v>
+      </c>
+      <c r="N58" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
-      </c>
-      <c r="G59" s="3">
-        <v>800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>800</v>
       </c>
       <c r="I59" s="3">
         <v>800</v>
@@ -2190,62 +2464,74 @@
         <v>800</v>
       </c>
       <c r="L59" s="3">
+        <v>800</v>
+      </c>
+      <c r="M59" s="3">
+        <v>800</v>
+      </c>
+      <c r="N59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1300</v>
       </c>
       <c r="J60" s="3">
         <v>1300</v>
       </c>
       <c r="K60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
         <v>800</v>
       </c>
       <c r="F61" s="3">
+        <v>800</v>
+      </c>
+      <c r="G61" s="3">
+        <v>800</v>
+      </c>
+      <c r="H61" s="3">
         <v>1000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>600</v>
-      </c>
-      <c r="H61" s="3">
-        <v>500</v>
-      </c>
-      <c r="I61" s="3">
-        <v>500</v>
       </c>
       <c r="J61" s="3">
         <v>500</v>
@@ -2256,8 +2542,14 @@
       <c r="L61" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>500</v>
+      </c>
+      <c r="N61" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2273,11 +2565,11 @@
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -2288,8 +2580,14 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2694,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2000</v>
       </c>
-      <c r="E66" s="3">
-        <v>1900</v>
-      </c>
       <c r="F66" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G66" s="3">
         <v>1900</v>
       </c>
       <c r="H66" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I66" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J66" s="3">
         <v>1800</v>
       </c>
       <c r="K66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2900,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,31 +3052,37 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1700</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-1600</v>
       </c>
       <c r="I76" s="3">
         <v>-1600</v>
       </c>
       <c r="J76" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="K76" s="3">
         <v>-1600</v>
@@ -2718,8 +3090,14 @@
       <c r="L76" s="3">
         <v>-1500</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3128,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3229,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3263,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,8 +3453,14 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3034,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -3052,13 +3486,19 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3511,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3103,8 +3545,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,22 +3621,28 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3" t="s">
+      <c r="E94" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -3196,11 +3656,17 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3827,14 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3373,8 +3865,14 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,8 +3903,14 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3417,24 +3921,30 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
     </row>
